--- a/13_Results/Table02_summaryTable.xlsx
+++ b/13_Results/Table02_summaryTable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,238 +436,292 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mean</t>
+          <t>Local Marginal Effect Coefficient of NDVI</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>0.5% Quantile</t>
+          <t>Local Marginal Effect Coefficient NTL</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2.5% Quantile</t>
+          <t>Local Marginal Effect  Coefficient Income</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>5% Quantile</t>
+          <t>MWTP of NDVI</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>25% Quantile</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>50% Quantile</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>75% Quantile</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>95% Quantile</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>97.5% Quantile</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>99.5% Quantile</t>
+          <t>MWTP of NTL</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Local Marginal Effect Coefficient of NDVI</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0.0003640720943473688</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.009340468524145272</v>
+        <v>-0.002036840325231087</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.004347580714019679</v>
+        <v>0.01475880580616951</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>374.5309191156665</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.001134419014149209</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.003586198430279661</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.005214093677627435</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.01096148708269902</v>
+        <v>-1439.619840281626</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Local Marginal Effect Coefficient NTL</t>
+          <t>Trimmed Mean</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.002036840325231087</v>
+        <v>0.0003642665620467603</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.03413070165277243</v>
+        <v>-0.001952982888479164</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01492167011949031</v>
+        <v>0.01454644819701441</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.001347478715890101</v>
+        <v>203.5628989722153</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.002577398967853264</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.001347478715890101</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.002205240032048536</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.005587210120475498</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.01896229672131386</v>
+        <v>-1090.419469832429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Local Marginal Effect  Coefficient Income</t>
+          <t>Trimmed Std</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01475880580616951</v>
+        <v>0.001954290872727033</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.006948494592112207</v>
+        <v>0.004242460154250774</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.001145424958081494</v>
+        <v>0.009917674536454014</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01355324785846226</v>
+        <v>2074.334630095327</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008527208063919826</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.01355324785846226</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.01869957332046453</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.03366156989500615</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0429929753599463</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.06614954186209544</v>
+        <v>4130.100965755611</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MWTP of NDVI</t>
+          <t>0.5% Quantile</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>379.0113530134527</v>
+        <v>-0.009340468524145272</v>
       </c>
       <c r="C5" t="n">
-        <v>-20557.8319382313</v>
+        <v>-0.03413070165277243</v>
       </c>
       <c r="D5" t="n">
-        <v>-4134.717079055808</v>
+        <v>-0.006948494592112207</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>-20813.74557220106</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>611.1249595535862</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2631.24926534717</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4631.269289300729</v>
-      </c>
-      <c r="K5" t="n">
-        <v>18458.57122973216</v>
+        <v>-42463.99470153533</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MWTP of NTL</t>
+          <t>2.5% Quantile</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1434.59465743144</v>
+        <v>-0.004347580714019679</v>
       </c>
       <c r="C6" t="n">
-        <v>-42463.99470153533</v>
+        <v>-0.01492167011949031</v>
       </c>
       <c r="D6" t="n">
-        <v>-10573.79680058304</v>
+        <v>-0.001145424958081494</v>
       </c>
       <c r="E6" t="n">
-        <v>-722.3015257531783</v>
+        <v>-4151.674070071354</v>
       </c>
       <c r="F6" t="n">
-        <v>-1520.401817539169</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-722.3015257531783</v>
-      </c>
-      <c r="H6" t="n">
+        <v>-10632.24516525472</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>5% Quantile</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1575.817576730816</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5309.84177169469</v>
-      </c>
-      <c r="K6" t="n">
-        <v>40590.41459632412</v>
+      <c r="C7" t="n">
+        <v>-0.001347478715890101</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01355324785846226</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-723.5522852940146</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>25% Quantile</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.002577398967853264</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.008527208063919826</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1523.141016373804</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>50% Quantile</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.001347478715890101</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01355324785846226</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-723.5522852940146</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>75% Quantile</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.001134419014149209</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01869957332046453</v>
+      </c>
+      <c r="E10" t="n">
+        <v>611.7558049814818</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>95% Quantile</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.003586198430279661</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.002205240032048536</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.03366156989500615</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2645.895718637044</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1577.095846753559</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>97.5% Quantile</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.005214093677627435</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.005587210120475498</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0429929753599463</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4663.113403868607</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5333.939741786408</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>99.5% Quantile</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.01096148708269902</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01896229672131386</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.06614954186209544</v>
+      </c>
+      <c r="E13" t="n">
+        <v>18153.10802517954</v>
+      </c>
+      <c r="F13" t="n">
+        <v>40377.22138477991</v>
       </c>
     </row>
   </sheetData>

--- a/13_Results/Table02_summaryTable.xlsx
+++ b/13_Results/Table02_summaryTable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,243 +485,309 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Trimmed Mean</t>
+          <t>Std</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0003642665620467603</v>
+        <v>0.002655414631174879</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.001952982888479164</v>
+        <v>0.006115486710447386</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01454644819701441</v>
+        <v>0.01120618266204667</v>
       </c>
       <c r="E3" t="n">
-        <v>203.5628989722153</v>
+        <v>74906.79147852625</v>
       </c>
       <c r="F3" t="n">
-        <v>-1090.419469832429</v>
+        <v>81958.5197181126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Trimmed Std</t>
+          <t>Trimmed Mean</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001954290872727033</v>
+        <v>0.0003642665620467603</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004242460154250774</v>
+        <v>-0.001952982888479164</v>
       </c>
       <c r="D4" t="n">
-        <v>0.009917674536454014</v>
+        <v>0.01454644819701441</v>
       </c>
       <c r="E4" t="n">
-        <v>2074.334630095327</v>
+        <v>203.5628989722153</v>
       </c>
       <c r="F4" t="n">
-        <v>4130.100965755611</v>
+        <v>-1090.419469832429</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>0.5% Quantile</t>
+          <t>Trimmed Std</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.009340468524145272</v>
+        <v>0.001954290872727033</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.03413070165277243</v>
+        <v>0.004242460154250774</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.006948494592112207</v>
+        <v>0.009917674536454014</v>
       </c>
       <c r="E5" t="n">
-        <v>-20813.74557220106</v>
+        <v>2074.334630095327</v>
       </c>
       <c r="F5" t="n">
-        <v>-42463.99470153533</v>
+        <v>4130.100965755611</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2.5% Quantile</t>
+          <t>Minimum</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.004347580714019679</v>
+        <v>-0.07216433607419981</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.01492167011949031</v>
+        <v>-0.1256777416323048</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.001145424958081494</v>
+        <v>-0.06062118777393614</v>
       </c>
       <c r="E6" t="n">
-        <v>-4151.674070071354</v>
+        <v>-8448931.813035229</v>
       </c>
       <c r="F6" t="n">
-        <v>-10632.24516525472</v>
+        <v>-11751340.00587198</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>5% Quantile</t>
+          <t>0.5% Quantile</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-0.009340468524145272</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.001347478715890101</v>
+        <v>-0.03413070165277243</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01355324785846226</v>
+        <v>-0.006948494592112207</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-20813.74557220106</v>
       </c>
       <c r="F7" t="n">
-        <v>-723.5522852940146</v>
+        <v>-42463.99470153533</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25% Quantile</t>
+          <t>2.5% Quantile</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.004347580714019679</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.002577398967853264</v>
+        <v>-0.01492167011949031</v>
       </c>
       <c r="D8" t="n">
-        <v>0.008527208063919826</v>
+        <v>-0.001145424958081494</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-4151.674070071354</v>
       </c>
       <c r="F8" t="n">
-        <v>-1523.141016373804</v>
+        <v>-10632.24516525472</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>50% Quantile</t>
+          <t>5% Quantile</t>
         </is>
       </c>
       <c r="B9" t="n">
+        <v>-0.002764781314327044</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.009244896317919462</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
-        <v>-0.001347478715890101</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.01355324785846226</v>
-      </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-2096.730003051614</v>
       </c>
       <c r="F9" t="n">
-        <v>-723.5522852940146</v>
+        <v>-5923.775449584251</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>75% Quantile</t>
+          <t>25% Quantile</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001134419014149209</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>-0.002577398967853264</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.008527208063919826</v>
+      </c>
+      <c r="E10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.01869957332046453</v>
-      </c>
-      <c r="E10" t="n">
-        <v>611.7558049814818</v>
-      </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-1523.141016373804</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>95% Quantile</t>
+          <t>50% Quantile</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.003586198430279661</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002205240032048536</v>
+        <v>-0.001347478715890101</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03366156989500615</v>
+        <v>0.01355324785846226</v>
       </c>
       <c r="E11" t="n">
-        <v>2645.895718637044</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1577.095846753559</v>
+        <v>-723.5522852940146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>97.5% Quantile</t>
+          <t>75% Quantile</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.005214093677627435</v>
+        <v>0.001134419014149209</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005587210120475498</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0429929753599463</v>
+        <v>0.01869957332046453</v>
       </c>
       <c r="E12" t="n">
-        <v>4663.113403868607</v>
+        <v>611.7558049814818</v>
       </c>
       <c r="F12" t="n">
-        <v>5333.939741786408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
+          <t>95% Quantile</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.003586198430279661</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.002205240032048536</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.03366156989500615</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2645.895718637044</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1577.095846753559</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>97.5% Quantile</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.005214093677627435</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.005587210120475498</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0429929753599463</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4663.113403868607</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5333.939741786408</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
           <t>99.5% Quantile</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B15" t="n">
         <v>0.01096148708269902</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C15" t="n">
         <v>0.01896229672131386</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D15" t="n">
         <v>0.06614954186209544</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E15" t="n">
         <v>18153.10802517954</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F15" t="n">
         <v>40377.22138477991</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.05427448884340472</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.093482972412136</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1623145488803048</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11832740.17657979</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4179182.993857747</v>
       </c>
     </row>
   </sheetData>
